--- a/data`.xlsx
+++ b/data`.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayadav\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJANA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="45">
   <si>
     <t>age</t>
   </si>
@@ -105,12 +105,66 @@
   </si>
   <si>
     <t>22/5/93</t>
+  </si>
+  <si>
+    <t>locality, address,city, 165132</t>
+  </si>
+  <si>
+    <t>julia</t>
+  </si>
+  <si>
+    <t>mbbs</t>
+  </si>
+  <si>
+    <t>mba</t>
+  </si>
+  <si>
+    <t>sri</t>
+  </si>
+  <si>
+    <t>manu</t>
+  </si>
+  <si>
+    <t>priyanka</t>
+  </si>
+  <si>
+    <t>rashmi</t>
+  </si>
+  <si>
+    <t>shubham</t>
+  </si>
+  <si>
+    <t>sourabh</t>
+  </si>
+  <si>
+    <t>june</t>
+  </si>
+  <si>
+    <t>pheobe</t>
+  </si>
+  <si>
+    <t>leela</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>cody</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>kathy</t>
+  </si>
+  <si>
+    <t>shyla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +197,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,18 +478,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -548,7 +602,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -598,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J5">
         <v>6546843549</v>
@@ -608,7 +662,2142 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
+      <c r="A6">
+        <v>1405413</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>9554425571</v>
+      </c>
+      <c r="K6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1405414</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>9876543210</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1405415</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>9554425571</v>
+      </c>
+      <c r="K8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1405416</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>9554425571</v>
+      </c>
+      <c r="K9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1405417</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>6546843549</v>
+      </c>
+      <c r="K10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1405418</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>9876543210</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1405419</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>9554425571</v>
+      </c>
+      <c r="K12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1405420</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13">
+        <v>9554425571</v>
+      </c>
+      <c r="K13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1405421</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>6546843549</v>
+      </c>
+      <c r="K14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1405422</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>9876543210</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1405423</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>9554425571</v>
+      </c>
+      <c r="K16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1405424</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>9554425571</v>
+      </c>
+      <c r="K17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1405425</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>6546843549</v>
+      </c>
+      <c r="K18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1405426</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>9876543210</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1405427</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>9554425571</v>
+      </c>
+      <c r="K20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1405428</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <v>9554425571</v>
+      </c>
+      <c r="K21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1405429</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>6546843549</v>
+      </c>
+      <c r="K22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1405430</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>9554425571</v>
+      </c>
+      <c r="K23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1405431</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <v>9876543210</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1405432</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <v>9554425571</v>
+      </c>
+      <c r="K25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1405433</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26">
+        <v>9554425571</v>
+      </c>
+      <c r="K26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1405434</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>6546843549</v>
+      </c>
+      <c r="K27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1405435</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <v>9876543210</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1405436</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>9554425571</v>
+      </c>
+      <c r="K29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1405437</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30">
+        <v>9554425571</v>
+      </c>
+      <c r="K30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1405438</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>6546843549</v>
+      </c>
+      <c r="K31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1405439</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32">
+        <v>9876543210</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1405440</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <v>9554425571</v>
+      </c>
+      <c r="K33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1405441</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34">
+        <v>9554425571</v>
+      </c>
+      <c r="K34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1405442</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <v>6546843549</v>
+      </c>
+      <c r="K35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1405443</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36">
+        <v>9876543210</v>
+      </c>
+      <c r="K36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1405444</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37">
+        <v>9554425571</v>
+      </c>
+      <c r="K37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1405445</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <v>9554425571</v>
+      </c>
+      <c r="K38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1405446</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>6546843549</v>
+      </c>
+      <c r="K39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1405447</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40">
+        <v>9554425571</v>
+      </c>
+      <c r="K40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1405448</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41">
+        <v>9876543210</v>
+      </c>
+      <c r="K41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1405449</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42">
+        <v>9554425571</v>
+      </c>
+      <c r="K42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1405450</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43">
+        <v>9554425571</v>
+      </c>
+      <c r="K43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1405451</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>6546843549</v>
+      </c>
+      <c r="K44">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1405452</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45">
+        <v>9876543210</v>
+      </c>
+      <c r="K45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1405453</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46">
+        <v>9554425571</v>
+      </c>
+      <c r="K46">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1405454</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47">
+        <v>9554425571</v>
+      </c>
+      <c r="K47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1405455</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48">
+        <v>6546843549</v>
+      </c>
+      <c r="K48">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1405456</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49">
+        <v>9876543210</v>
+      </c>
+      <c r="K49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1405457</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50">
+        <v>9554425571</v>
+      </c>
+      <c r="K50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1405458</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51">
+        <v>9554425571</v>
+      </c>
+      <c r="K51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1405459</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52">
+        <v>6546843549</v>
+      </c>
+      <c r="K52">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1405460</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53">
+        <v>9876543210</v>
+      </c>
+      <c r="K53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1405461</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54">
+        <v>9554425571</v>
+      </c>
+      <c r="K54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1405462</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55">
+        <v>9554425571</v>
+      </c>
+      <c r="K55">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1405463</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <v>6546843549</v>
+      </c>
+      <c r="K56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1405464</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57">
+        <v>9554425571</v>
+      </c>
+      <c r="K57">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1405465</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58">
+        <v>9876543210</v>
+      </c>
+      <c r="K58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1405466</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59">
+        <v>9554425571</v>
+      </c>
+      <c r="K59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1405467</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60">
+        <v>9554425571</v>
+      </c>
+      <c r="K60">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1405468</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61">
+        <v>6546843549</v>
+      </c>
+      <c r="K61">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1405469</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62">
+        <v>9876543210</v>
+      </c>
+      <c r="K62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1405470</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63">
+        <v>9554425571</v>
+      </c>
+      <c r="K63">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1405471</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64">
+        <v>9554425571</v>
+      </c>
+      <c r="K64">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1405472</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65">
+        <v>6546843549</v>
+      </c>
+      <c r="K65">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1405473</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66">
+        <v>9876543210</v>
+      </c>
+      <c r="K66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1405474</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67">
+        <v>9554425571</v>
+      </c>
+      <c r="K67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1405475</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68">
+        <v>9554425571</v>
+      </c>
+      <c r="K68">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1405476</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69">
+        <v>6546843549</v>
+      </c>
+      <c r="K69">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
